--- a/data/time.xlsx
+++ b/data/time.xlsx
@@ -498,25 +498,25 @@
         <v>0.3</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="J2" t="n">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.06741573033707865</v>
       </c>
     </row>
     <row r="3">
@@ -539,25 +539,25 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G3" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="J3" t="n">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.04918032786885246</v>
       </c>
     </row>
     <row r="4">
@@ -580,25 +580,25 @@
         <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="G4" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02362204724409449</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1875</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04195804195804196</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="5">
@@ -624,22 +624,22 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="G5" t="n">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0111731843575419</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="J5" t="n">
-        <v>0.125</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02051282051282051</v>
+        <v>0.02150537634408602</v>
       </c>
     </row>
     <row r="6">
@@ -662,25 +662,25 @@
         <v>1.3</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1502</v>
+        <v>1540</v>
       </c>
       <c r="G6" t="n">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008771929824561403</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="J6" t="n">
-        <v>0.125</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.009216589861751152</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +703,25 @@
         <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1718</v>
+        <v>1785</v>
       </c>
       <c r="G7" t="n">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007042253521126761</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.008264462809917356</v>
       </c>
     </row>
     <row r="8">
@@ -744,25 +744,25 @@
         <v>1.7</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1979</v>
+        <v>2040</v>
       </c>
       <c r="G8" t="n">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006779661016949152</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="J8" t="n">
-        <v>0.125</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01286173633440514</v>
+        <v>0.007782101167315175</v>
       </c>
     </row>
     <row r="9">
@@ -788,22 +788,22 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2352</v>
+        <v>2406</v>
       </c>
       <c r="G9" t="n">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006060606060606061</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="J9" t="n">
-        <v>0.125</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0115606936416185</v>
+        <v>0.0132890365448505</v>
       </c>
     </row>
     <row r="10">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>1321</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1715</v>
+        <v>1729</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1984</v>
+        <v>1999</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1075,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2251</v>
+        <v>2268</v>
       </c>
       <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
         <v>21</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2654</v>
+        <v>2676</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1154,25 +1154,25 @@
         <v>0.3</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G18" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04680851063829787</v>
+        <v>0.064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6875</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08764940239043825</v>
+        <v>0.1180811808118081</v>
       </c>
     </row>
     <row r="19">
@@ -1195,25 +1195,25 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="G19" t="n">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02604166666666667</v>
+        <v>0.03818615751789976</v>
       </c>
       <c r="J19" t="n">
-        <v>0.625</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05</v>
+        <v>0.07272727272727272</v>
       </c>
     </row>
     <row r="20">
@@ -1236,25 +1236,25 @@
         <v>0.7</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="G20" t="n">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01915708812260536</v>
+        <v>0.02893309222423146</v>
       </c>
       <c r="J20" t="n">
-        <v>0.625</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03717472118959108</v>
+        <v>0.05574912891986063</v>
       </c>
     </row>
     <row r="21">
@@ -1277,25 +1277,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="G21" t="n">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01344086021505376</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="J21" t="n">
-        <v>0.625</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.03975155279503106</v>
       </c>
     </row>
     <row r="22">
@@ -1318,25 +1318,25 @@
         <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="G22" t="n">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="H22" t="n">
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>0.009970089730807577</v>
+        <v>0.01431297709923664</v>
       </c>
       <c r="J22" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01962708537782139</v>
+        <v>0.02806361085126286</v>
       </c>
     </row>
     <row r="23">
@@ -1359,25 +1359,25 @@
         <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>851</v>
+        <v>806</v>
       </c>
       <c r="G23" t="n">
-        <v>1149</v>
+        <v>1199</v>
       </c>
       <c r="H23" t="n">
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>0.008628127696289905</v>
+        <v>0.01235584843492587</v>
       </c>
       <c r="J23" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01702127659574468</v>
+        <v>0.0242914979757085</v>
       </c>
     </row>
     <row r="24">
@@ -1400,25 +1400,25 @@
         <v>1.7</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>987</v>
+        <v>936</v>
       </c>
       <c r="G24" t="n">
-        <v>1285</v>
+        <v>1339</v>
       </c>
       <c r="H24" t="n">
         <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007722007722007722</v>
+        <v>0.01107828655834564</v>
       </c>
       <c r="J24" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01525553012967201</v>
+        <v>0.02181818181818182</v>
       </c>
     </row>
     <row r="25">
@@ -1441,25 +1441,25 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>1203</v>
+        <v>1149</v>
       </c>
       <c r="G25" t="n">
-        <v>1477</v>
+        <v>1535</v>
       </c>
       <c r="H25" t="n">
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>0.006724949562878279</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="J25" t="n">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01330671989354624</v>
+        <v>0.01909611712285169</v>
       </c>
     </row>
     <row r="26">
@@ -1482,25 +1482,25 @@
         <v>0.3</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03680981595092025</v>
+        <v>0.05637982195845697</v>
       </c>
       <c r="J26" t="n">
-        <v>0.75</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07017543859649122</v>
+        <v>0.106145251396648</v>
       </c>
     </row>
     <row r="27">
@@ -1523,25 +1523,25 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G27" t="n">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02242990654205607</v>
+        <v>0.03405017921146954</v>
       </c>
       <c r="J27" t="n">
-        <v>0.75</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04355716878402904</v>
+        <v>0.06563039723661486</v>
       </c>
     </row>
     <row r="28">
@@ -1564,25 +1564,25 @@
         <v>0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F28" t="n">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G28" t="n">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0163265306122449</v>
+        <v>0.0247074122236671</v>
       </c>
       <c r="J28" t="n">
-        <v>0.75</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03195739014647137</v>
+        <v>0.04810126582278481</v>
       </c>
     </row>
     <row r="29">
@@ -1605,25 +1605,25 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="G29" t="n">
-        <v>1037</v>
+        <v>1082</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01143946615824595</v>
+        <v>0.01725703905540418</v>
       </c>
       <c r="J29" t="n">
-        <v>0.75</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02253521126760564</v>
+        <v>0.0338680926916221</v>
       </c>
     </row>
     <row r="30">
@@ -1646,25 +1646,25 @@
         <v>1.3</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="G30" t="n">
-        <v>1361</v>
+        <v>1434</v>
       </c>
       <c r="H30" t="n">
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>0.008017492711370262</v>
+        <v>0.01103448275862069</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6875</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01585014409221902</v>
+        <v>0.02175390890550646</v>
       </c>
     </row>
     <row r="31">
@@ -1687,25 +1687,25 @@
         <v>1.5</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="G31" t="n">
-        <v>1574</v>
+        <v>1640</v>
       </c>
       <c r="H31" t="n">
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00694006309148265</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6875</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01374141161773891</v>
+        <v>0.01908169350029815</v>
       </c>
     </row>
     <row r="32">
@@ -1728,25 +1728,25 @@
         <v>1.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F32" t="n">
-        <v>503</v>
+        <v>438</v>
       </c>
       <c r="G32" t="n">
-        <v>1769</v>
+        <v>1837</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>0.006179775280898876</v>
+        <v>0.008634646519158122</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6875</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01224944320712695</v>
+        <v>0.01707577374599787</v>
       </c>
     </row>
     <row r="33">
@@ -1769,25 +1769,25 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="G33" t="n">
-        <v>2028</v>
+        <v>2066</v>
       </c>
       <c r="H33" t="n">
         <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005394801373222168</v>
+        <v>0.007684918347742555</v>
       </c>
       <c r="J33" t="n">
-        <v>0.6875</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01070559610705596</v>
+        <v>0.01521635758440323</v>
       </c>
     </row>
     <row r="34">
@@ -1810,25 +1810,25 @@
         <v>0.3</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G34" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="H34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1875</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K34" t="n">
-        <v>0.06185567010309279</v>
+        <v>0.1318681318681319</v>
       </c>
     </row>
     <row r="35">
@@ -1851,25 +1851,25 @@
         <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="G35" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H35" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03191489361702127</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1875</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05454545454545454</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="36">
@@ -1892,25 +1892,25 @@
         <v>0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G36" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H36" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0625</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01834862385321101</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="37">
@@ -1933,25 +1933,25 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>1199</v>
+        <v>1171</v>
       </c>
       <c r="G37" t="n">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="J37" t="n">
-        <v>0.125</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0272108843537415</v>
+        <v>0.04371584699453552</v>
       </c>
     </row>
     <row r="38">
@@ -1977,22 +1977,22 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="G38" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H38" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="J38" t="n">
-        <v>0.125</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02247191011235955</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="39">
@@ -2015,25 +2015,25 @@
         <v>1.5</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>1802</v>
+        <v>1791</v>
       </c>
       <c r="G39" t="n">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="H39" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01492537313432836</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1875</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02764976958525346</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="40">
@@ -2059,22 +2059,22 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>2026</v>
+        <v>2091</v>
       </c>
       <c r="G40" t="n">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="H40" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I40" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="J40" t="n">
-        <v>0.125</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01515151515151515</v>
+        <v>0.01932367149758454</v>
       </c>
     </row>
     <row r="41">
@@ -2100,22 +2100,22 @@
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>2446</v>
+        <v>2400</v>
       </c>
       <c r="G41" t="n">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="H41" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I41" t="n">
-        <v>0.008474576271186441</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="J41" t="n">
-        <v>0.125</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.01302931596091205</v>
       </c>
     </row>
     <row r="42">
@@ -2141,22 +2141,22 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G42" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.04</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0625</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="43">
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H45" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2346,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2469,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2551,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2592,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1077</v>
+        <v>1096</v>
       </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1301</v>
+        <v>1324</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1539</v>
+        <v>1585</v>
       </c>
       <c r="G56" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1914</v>
+        <v>1941</v>
       </c>
       <c r="G57" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1341</v>
+        <v>1315</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1582</v>
+        <v>1571</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3084,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2202</v>
+        <v>2235</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3122,25 +3122,25 @@
         <v>0.3</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G66" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H66" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04191616766467066</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4375</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="K66" t="n">
-        <v>0.07650273224043716</v>
+        <v>0.1063829787234043</v>
       </c>
     </row>
     <row r="67">
@@ -3163,25 +3163,25 @@
         <v>0.5</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G67" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="H67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="J67" t="n">
-        <v>0.375</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="K67" t="n">
-        <v>0.04316546762589928</v>
+        <v>0.06734006734006734</v>
       </c>
     </row>
     <row r="68">
@@ -3204,25 +3204,25 @@
         <v>0.7</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="G68" t="n">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="H68" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01801801801801802</v>
+        <v>0.02513966480446927</v>
       </c>
       <c r="J68" t="n">
-        <v>0.375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03438395415472779</v>
+        <v>0.04749340369393139</v>
       </c>
     </row>
     <row r="69">
@@ -3245,25 +3245,25 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="G69" t="n">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="H69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01103752759381899</v>
+        <v>0.01902748414376321</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K69" t="n">
-        <v>0.02132196162046908</v>
+        <v>0.03643724696356275</v>
       </c>
     </row>
     <row r="70">
@@ -3286,25 +3286,25 @@
         <v>1.3</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F70" t="n">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="G70" t="n">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H70" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01065719360568384</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="J70" t="n">
-        <v>0.375</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02072538860103627</v>
+        <v>0.02680067001675042</v>
       </c>
     </row>
     <row r="71">
@@ -3327,25 +3327,25 @@
         <v>1.5</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="G71" t="n">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="H71" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I71" t="n">
-        <v>0.008347245409015025</v>
+        <v>0.0109204368174727</v>
       </c>
       <c r="J71" t="n">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K71" t="n">
-        <v>0.01626016260162602</v>
+        <v>0.02114803625377644</v>
       </c>
     </row>
     <row r="72">
@@ -3368,25 +3368,25 @@
         <v>1.7</v>
       </c>
       <c r="E72" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>1624</v>
+        <v>1597</v>
       </c>
       <c r="G72" t="n">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="H72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I72" t="n">
-        <v>0.006134969325153374</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="J72" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K72" t="n">
-        <v>0.01197604790419162</v>
+        <v>0.01702127659574468</v>
       </c>
     </row>
     <row r="73">
@@ -3409,25 +3409,25 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>2000</v>
+        <v>1945</v>
       </c>
       <c r="G73" t="n">
-        <v>680</v>
+        <v>739</v>
       </c>
       <c r="H73" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0072992700729927</v>
+        <v>0.008053691275167786</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3125</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01426533523537803</v>
+        <v>0.01566579634464752</v>
       </c>
     </row>
     <row r="74">
@@ -3453,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3494,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
